--- a/paper/archive/referee reports/refRepResp.xlsx
+++ b/paper/archive/referee reports/refRepResp.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brett's Workstation\Dropbox\Hours constraints and home prod\paper\archive\referee reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="15315" windowHeight="25845" activeTab="1"/>
+    <workbookView minimized="1" xWindow="480" yWindow="75" windowWidth="15315" windowHeight="25845"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="Data" sheetId="3" r:id="rId3"/>
     <sheet name="all" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -193,7 +198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,6 +260,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -302,7 +310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,7 +345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,19 +556,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -574,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -588,7 +596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C3" s="2">
         <v>4</v>
       </c>
@@ -596,7 +604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -610,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" s="2">
         <v>4</v>
       </c>
@@ -618,7 +626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -632,7 +640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -646,7 +654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C8" s="2">
         <v>4</v>
       </c>
@@ -654,7 +662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -668,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -682,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -696,7 +704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -720,20 +728,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="60.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="136.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="60.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="1"/>
+    <col min="4" max="4" width="9.73046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="136.73046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -750,7 +758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -764,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -778,7 +786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -792,7 +800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -809,12 +817,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -828,7 +836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -856,15 +864,15 @@
       <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="64" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="1"/>
+    <col min="4" max="4" width="9.86328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -878,7 +886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,12 +914,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -925,7 +933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -939,7 +947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -953,7 +961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -967,7 +975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -995,14 +1003,14 @@
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="51.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="1" max="2" width="51.59765625" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>51</v>
       </c>
@@ -1010,7 +1018,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1038,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2">
@@ -1048,7 +1056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1062,7 +1070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2">
@@ -1072,7 +1080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1086,7 +1094,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1100,7 +1108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2">
@@ -1110,7 +1118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1124,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1138,7 +1146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -1152,7 +1160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1166,31 +1174,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
@@ -1198,7 +1206,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,7 +1234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1240,7 +1248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
@@ -1254,7 +1262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -1268,7 +1276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -1282,7 +1290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
@@ -1296,7 +1304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
         <v>53</v>
       </c>
@@ -1304,7 +1312,7 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -1332,7 +1340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -1346,7 +1354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>11</v>
@@ -1354,7 +1362,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -1368,7 +1376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
@@ -1382,7 +1390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
@@ -1396,7 +1404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>27</v>
       </c>
@@ -1410,7 +1418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>41</v>
       </c>
